--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/D/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/D/20/seed4/result_data_KNN.xlsx
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.356</v>
+        <v>-8.319000000000001</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -658,7 +658,7 @@
         <v>-13.63</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.967999999999999</v>
+        <v>-7.662999999999999</v>
       </c>
       <c r="E13" t="n">
         <v>12.56</v>
@@ -709,7 +709,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.500000000000002</v>
+        <v>-8.183</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -743,7 +743,7 @@
         <v>-15.19</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.104000000000001</v>
+        <v>-8.176</v>
       </c>
       <c r="E18" t="n">
         <v>12.54</v>
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.628</v>
+        <v>-8.083000000000002</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
